--- a/DPI_Table_Audit/OISAutoTransfers_11-10-2024.xlsx
+++ b/DPI_Table_Audit/OISAutoTransfers_11-10-2024.xlsx
@@ -177,27 +177,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -521,7 +501,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,10 +621,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
